--- a/MSAs.xlsx
+++ b/MSAs.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris.kiniry\Documents\R Projects\BLS\"/>
@@ -18,11 +18,12 @@
     <sheet name="States" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MSA!$A$1:$D$445</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$498</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="508">
   <si>
     <t>state_name</t>
   </si>
@@ -1556,7 +1557,7 @@
     <t>NECTA Division</t>
   </si>
   <si>
-    <t>(blank)</t>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -1635,11 +1636,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Chris Kiniry" refreshedDate="43052.660780092592" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="444">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Chris Kiniry" refreshedDate="43054.652879745372" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="444">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C445" sheet="MSA"/>
+    <worksheetSource ref="A1:D445" sheet="MSA"/>
   </cacheSource>
-  <cacheFields count="3">
+  <cacheFields count="4">
     <cacheField name="state_name" numFmtId="0">
       <sharedItems count="52">
         <s v="Alabama"/>
@@ -1706,6 +1707,12 @@
         <s v="NECTA Division"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="MSA" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="MSA"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1721,2229 +1728,2673 @@
     <x v="0"/>
     <s v="Anniston-Oxford-Jacksonville, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Auburn-Opelika, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Birmingham-Hoover, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Daphne-Fairhope-Foley, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Decatur, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Dothan, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Florence-Muscle Shoals, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Gadsden, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Huntsville, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Mobile, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Montgomery, AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Tuscaloosa, AL"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <s v="Anchorage, AK"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <s v="Fairbanks, AK"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Flagstaff, AZ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Lake Havasu City-Kingman, AZ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Phoenix-Mesa-Scottsdale, AZ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Prescott, AZ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Sierra Vista-Douglas, AZ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Tucson, AZ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Yuma, AZ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <s v="Fayetteville-Springdale-Rogers, AR-MO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <s v="Fort Smith, AR-OK"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <s v="Hot Springs, AR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <s v="Jonesboro, AR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <s v="Little Rock-North Little Rock-Conway, AR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <s v="Pine Bluff, AR"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Anaheim-Santa Ana-Irvine, CA Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Bakersfield, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Chico, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="El Centro, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Fresno, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Hanford-Corcoran, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Los Angeles-Long Beach-Anaheim, CA"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Los Angeles-Long Beach-Glendale, CA Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Madera, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Merced, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Modesto, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Napa, CA"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Oakland-Hayward-Berkeley, CA Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Oxnard-Thousand Oaks-Ventura, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Redding, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Riverside-San Bernardino-Ontario, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Sacramento--Roseville--Arden-Arcade, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Salinas, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="San Diego-Carlsbad, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="San Francisco-Oakland-Hayward, CA"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
     <s v="San Francisco-Redwood City-South San Francisco, CA Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="San Jose-Sunnyvale-Santa Clara, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="San Luis Obispo-Paso Robles-Arroyo Grande, CA"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="San Rafael, CA Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Santa Cruz-Watsonville, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Santa Maria-Santa Barbara, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Santa Rosa, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Stockton-Lodi, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Vallejo-Fairfield, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Visalia-Porterville, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Yuba City, CA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <s v="Boulder, CO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <s v="Colorado Springs, CO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <s v="Denver-Aurora-Lakewood, CO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <s v="Fort Collins, CO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <s v="Grand Junction, CO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <s v="Greeley, CO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <s v="Pueblo, CO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <s v="Bridgeport-Stamford-Norwalk, CT NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <s v="Danbury, CT NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <s v="Hartford-West Hartford-East Hartford, CT NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <s v="New Haven, CT NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <s v="Norwich-New London-Westerly, CT-RI NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <s v="Waterbury, CT NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
     <s v="Dover, DE"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
     <s v="Salisbury, MD-DE"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="7"/>
     <s v="Wilmington, DE-MD-NJ Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
     <s v="Washington-Arlington-Alexandria, DC-VA-MD-WV"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
     <s v="Washington-Arlington-Alexandria, DC-VA-MD-WV Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Cape Coral-Fort Myers, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Crestview-Fort Walton Beach-Destin, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Deltona-Daytona Beach-Ormond Beach, FL"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Fort Lauderdale-Pompano Beach-Deerfield Beach, FL Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Gainesville, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Homosassa Springs, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Jacksonville, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Lakeland-Winter Haven, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Miami-Fort Lauderdale-West Palm Beach, FL"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Miami-Miami Beach-Kendall, FL Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Naples-Immokalee-Marco Island, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="North Port-Sarasota-Bradenton, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Ocala, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Orlando-Kissimmee-Sanford, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Palm Bay-Melbourne-Titusville, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Panama City, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Pensacola-Ferry Pass-Brent, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Port St. Lucie, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Punta Gorda, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Sebastian-Vero Beach, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Sebring, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Tallahassee, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Tampa-St. Petersburg-Clearwater, FL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="The Villages, FL"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="West Palm Beach-Boca Raton-Delray Beach, FL Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Albany, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Athens-Clarke County, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Atlanta-Sandy Springs-Roswell, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Augusta-Richmond County, GA-SC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Brunswick, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Columbus, GA-AL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Dalton, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Gainesville, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Hinesville, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Macon-Bibb County, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Rome, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Savannah, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Valdosta, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Warner Robins, GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
     <s v="Kahului-Wailuku-Lahaina, HI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
     <s v="Urban Honolulu, HI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Boise City, ID"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Coeur d'Alene, ID"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Idaho Falls, ID"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Lewiston, ID-WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Pocatello, ID"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Bloomington, IL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Carbondale-Marion, IL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Champaign-Urbana, IL"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Chicago-Naperville-Arlington Heights, IL Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Chicago-Naperville-Elgin, IL-IN-WI"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Danville, IL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Davenport-Moline-Rock Island, IA-IL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Decatur, IL"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Elgin, IL Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Kankakee, IL"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Lake County-Kenosha County, IL-WI Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Peoria, IL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Rockford, IL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Springfield, IL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Bloomington, IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Columbus, IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Elkhart-Goshen, IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Evansville, IN-KY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Fort Wayne, IN"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Gary, IN Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Indianapolis-Carmel-Anderson, IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Kokomo, IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Lafayette-West Lafayette, IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Michigan City-La Porte, IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Muncie, IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="South Bend-Mishawaka, IN-MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Terre Haute, IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="15"/>
     <s v="Ames, IA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="15"/>
     <s v="Cedar Rapids, IA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="15"/>
     <s v="Des Moines-West Des Moines, IA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="15"/>
     <s v="Dubuque, IA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="15"/>
     <s v="Iowa City, IA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="15"/>
     <s v="Sioux City, IA-NE-SD"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="15"/>
     <s v="Waterloo-Cedar Falls, IA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Kansas City, KS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Lawrence, KS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Manhattan, KS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Topeka, KS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Wichita, KS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="17"/>
     <s v="Bowling Green, KY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="17"/>
     <s v="Elizabethtown-Fort Knox, KY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="17"/>
     <s v="Lexington-Fayette, KY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="17"/>
     <s v="Louisville/Jefferson County, KY-IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="17"/>
     <s v="Owensboro, KY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Alexandria, LA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Baton Rouge, LA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Hammond, LA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Houma-Thibodaux, LA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Lafayette, LA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Lake Charles, LA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Monroe, LA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
     <s v="New Orleans-Metairie, LA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Shreveport-Bossier City, LA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="19"/>
     <s v="Bangor, ME NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="19"/>
     <s v="Lewiston-Auburn, ME NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="19"/>
     <s v="Portland-South Portland, ME NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Baltimore City, MD"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Baltimore-Columbia-Towson, MD"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="California-Lexington Park, MD"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Calvert-Charles-Prince George's, MD"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Cumberland, MD-WV"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Hagerstown-Martinsburg, MD-WV"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Silver Spring-Frederick-Rockville, MD Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Barnstable Town, MA NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Boston-Cambridge-Nashua, MA-NH NECTA"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Boston-Cambridge-Newton, MA NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Brockton-Bridgewater-Easton, MA NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Framingham, MA NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Haverhill-Newburyport-Amesbury Town, MA-NH NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Lawrence-Methuen Town-Salem, MA-NH NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Leominster-Gardner, MA NECTA"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Lowell-Billerica-Chelmsford, MA-NH NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Lynn-Saugus-Marblehead, MA NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="New Bedford, MA NECTA"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Peabody-Salem-Beverly, MA NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Pittsfield, MA NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Springfield, MA-CT NECTA"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Taunton-Middleborough-Norton, MA NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Worcester, MA-CT NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Ann Arbor, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Battle Creek, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Bay City, MI"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Detroit-Dearborn-Livonia, MI Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Detroit-Warren-Dearborn, MI"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Flint, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Grand Rapids-Wyoming, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Jackson, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Kalamazoo-Portage, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Lansing-East Lansing, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Midland, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Monroe, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Muskegon, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Niles-Benton Harbor, MI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Saginaw, MI"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Warren-Troy-Farmington Hills, MI Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="23"/>
     <s v="Duluth, MN-WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="23"/>
     <s v="Mankato-North Mankato, MN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="23"/>
     <s v="Minneapolis-St. Paul-Bloomington, MN-WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="23"/>
     <s v="Rochester, MN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="23"/>
     <s v="St. Cloud, MN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="24"/>
     <s v="Gulfport-Biloxi-Pascagoula, MS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="24"/>
     <s v="Hattiesburg, MS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="24"/>
     <s v="Jackson, MS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="25"/>
     <s v="Cape Girardeau, MO-IL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="25"/>
     <s v="Columbia, MO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="25"/>
     <s v="Jefferson City, MO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="25"/>
     <s v="Joplin, MO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="25"/>
     <s v="Kansas City, MO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="25"/>
     <s v="Kansas City, MO-KS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="25"/>
     <s v="Springfield, MO"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="25"/>
     <s v="St. Joseph, MO-KS"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="25"/>
     <s v="St. Louis, MO-IL"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="26"/>
     <s v="Billings, MT"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="26"/>
     <s v="Great Falls, MT"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="26"/>
     <s v="Missoula, MT"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="27"/>
     <s v="Grand Island, NE"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="27"/>
     <s v="Lincoln, NE"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="27"/>
     <s v="Omaha-Council Bluffs, NE-IA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="28"/>
     <s v="Carson City, NV"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="28"/>
     <s v="Las Vegas-Henderson-Paradise, NV"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="28"/>
     <s v="Reno, NV"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="29"/>
     <s v="Dover-Durham, NH-ME NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="29"/>
     <s v="Manchester, NH NECTA"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="29"/>
     <s v="Nashua, NH-MA NECTA Division"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="29"/>
     <s v="Portsmouth, NH-ME NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="30"/>
     <s v="Atlantic City-Hammonton, NJ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="30"/>
     <s v="Bergen-Hudson-Passaic, NJ"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="30"/>
     <s v="Camden, NJ Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="30"/>
     <s v="Middlesex-Monmouth-Ocean, NJ"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="30"/>
     <s v="Newark, NJ-PA Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="30"/>
     <s v="Ocean City, NJ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="30"/>
     <s v="Trenton, NJ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="30"/>
     <s v="Vineland-Bridgeton, NJ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="31"/>
     <s v="Albuquerque, NM"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="31"/>
     <s v="Farmington, NM"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="31"/>
     <s v="Las Cruces, NM"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="31"/>
     <s v="Santa Fe, NM"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Albany-Schenectady-Troy, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Binghamton, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Buffalo-Cheektowaga-Niagara Falls, NY"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Dutchess County-Putnam County, NY Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Elmira, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Glens Falls, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Ithaca, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Kingston, NY"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Nassau County-Suffolk County, NY Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="New York City, NY"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="New York-Jersey City-White Plains, NY-NJ Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="New York-Newark-Jersey City, NY-NJ-PA"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Orange-Rockland-Westchester, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Rochester, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Syracuse, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Utica-Rome, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
     <s v="Watertown-Fort Drum, NY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Asheville, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Burlington, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Charlotte-Concord-Gastonia, NC-SC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Durham-Chapel Hill, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Fayetteville, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Goldsboro, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Greensboro-High Point, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Greenville, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Hickory-Lenoir-Morganton, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Jacksonville, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="New Bern, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Raleigh, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Rocky Mount, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Wilmington, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
     <s v="Winston-Salem, NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="34"/>
     <s v="Bismarck, ND"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="34"/>
     <s v="Fargo, ND-MN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="34"/>
     <s v="Grand Forks, ND-MN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Akron, OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Canton-Massillon, OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Cincinnati, OH-KY-IN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Cleveland-Elyria, OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Columbus, OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Dayton, OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Lima, OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Mansfield, OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Springfield, OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Toledo, OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Weirton-Steubenville, WV-OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="35"/>
     <s v="Youngstown-Warren-Boardman, OH-PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="36"/>
     <s v="Enid, OK"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="36"/>
     <s v="Lawton, OK"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="36"/>
     <s v="Oklahoma City, OK"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="36"/>
     <s v="Tulsa, OK"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Albany, OR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Bend-Redmond, OR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Corvallis, OR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Eugene, OR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Grants Pass, OR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Medford, OR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Portland-Vancouver-Hillsboro, OR-WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="Salem, OR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Allentown-Bethlehem-Easton, PA-NJ"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Altoona, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Bloomsburg-Berwick, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Chambersburg-Waynesboro, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Delaware County, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="East Stroudsburg, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Erie, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Gettysburg, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Harrisburg-Carlisle, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Johnstown, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Lancaster, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Lebanon, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Montgomery County-Bucks County-Chester County, PA Metropolitan Division"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Philadelphia City, PA"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Philadelphia, PA Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Philadelphia-Camden-Wilmington, PA-NJ-DE-MD"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Pittsburgh, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Reading, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Scranton--Wilkes-Barre--Hazleton, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="State College, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="Williamsport, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
     <s v="York-Hanover, PA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="39"/>
     <s v="Aguadilla-Isabela, PR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="39"/>
     <s v="Arecibo, PR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="39"/>
     <s v="Guayama, PR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="39"/>
     <s v="Mayaguez, PR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="39"/>
     <s v="Ponce, PR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="39"/>
     <s v="San German, PR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="39"/>
     <s v="San Juan-Carolina-Caguas, PR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="40"/>
     <s v="Providence-Warwick, RI-MA NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="41"/>
     <s v="Charleston-North Charleston, SC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="41"/>
     <s v="Columbia, SC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="41"/>
     <s v="Florence, SC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="41"/>
     <s v="Greenville-Anderson-Mauldin, SC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="41"/>
     <s v="Hilton Head Island-Bluffton-Beaufort, SC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="41"/>
     <s v="Myrtle Beach-Conway-North Myrtle Beach, SC-NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="41"/>
     <s v="Spartanburg, SC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="41"/>
     <s v="Sumter, SC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="42"/>
     <s v="Rapid City, SD"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="42"/>
     <s v="Sioux Falls, SD"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Chattanooga, TN-GA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Clarksville, TN-KY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Cleveland, TN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Jackson, TN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Johnson City, TN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Kingsport-Bristol-Bristol, TN-VA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Knoxville, TN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Memphis, TN-MS-AR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Morristown, TN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="43"/>
     <s v="Nashville-Davidson--Murfreesboro--Franklin, TN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Abilene, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Amarillo, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Austin-Round Rock, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Beaumont-Port Arthur, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Brownsville-Harlingen, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="College Station-Bryan, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Corpus Christi, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Dallas-Fort Worth-Arlington, TX"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Dallas-Plano-Irving, TX Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="El Paso, TX"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Fort Worth-Arlington, TX Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Houston-The Woodlands-Sugar Land, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Killeen-Temple, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Laredo, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Longview, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Lubbock, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="McAllen-Edinburg-Mission, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Midland, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Odessa, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="San Angelo, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="San Antonio-New Braunfels, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Sherman-Denison, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Texarkana, TX-AR"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Tyler, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Victoria, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Waco, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="44"/>
     <s v="Wichita Falls, TX"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="45"/>
     <s v="Logan, UT-ID"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="45"/>
     <s v="Ogden-Clearfield, UT"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="45"/>
     <s v="Provo-Orem, UT"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="45"/>
     <s v="Salt Lake City, UT"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="45"/>
     <s v="St. George, UT"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="46"/>
     <s v="Burlington-South Burlington, VT NECTA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Blacksburg-Christiansburg-Radford, VA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Charlottesville, VA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Harrisonburg, VA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Lynchburg, VA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Northern Virginia, VA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Richmond, VA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Roanoke, VA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Staunton-Waynesboro, VA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Virginia Beach-Norfolk-Newport News, VA-NC"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
     <s v="Winchester, VA-WV"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Bellingham, WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Bremerton-Silverdale, WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Kennewick-Richland, WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Longview, WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Mount Vernon-Anacortes, WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Olympia-Tumwater, WA"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Seattle-Bellevue-Everett, WA Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Seattle-Tacoma-Bellevue, WA"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Spokane-Spokane Valley, WA"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Tacoma-Lakewood, WA Metropolitan Division"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Walla Walla, WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Wenatchee, WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="48"/>
     <s v="Yakima, WA"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="49"/>
     <s v="Beckley, WV"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="49"/>
     <s v="Charleston, WV"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="49"/>
     <s v="Huntington-Ashland, WV-KY-OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="49"/>
     <s v="Morgantown, WV"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="49"/>
     <s v="Parkersburg-Vienna, WV"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="49"/>
     <s v="Wheeling, WV-OH"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Appleton, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Eau Claire, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Fond du Lac, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Green Bay, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Janesville-Beloit, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="La Crosse-Onalaska, WI-MN"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Madison, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Milwaukee-Waukesha-West Allis, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Oshkosh-Neenah, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Racine, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Sheboygan, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="50"/>
     <s v="Wausau, WI"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="51"/>
     <s v="Casper, WY"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="51"/>
     <s v="Cheyenne, WY"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I6:J59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J6:K59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="4">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="53">
         <item x="0"/>
@@ -4006,6 +4457,13 @@
       <items count="4">
         <item x="1"/>
         <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -4178,8 +4636,9 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="2" item="2" hier="-1"/>
+  <pageFields count="2">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of area_name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
@@ -4493,6 +4952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B852"/>
   <sheetViews>
     <sheetView topLeftCell="A830" workbookViewId="0">
@@ -11328,7 +11788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:B498"/>
   <sheetViews>
     <sheetView topLeftCell="A156" workbookViewId="0">
@@ -15339,10 +15799,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J445"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:K445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15350,11 +15811,11 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15364,8 +15825,11 @@
       <c r="C1" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15373,29 +15837,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="K4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -15403,329 +15873,329 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>462</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J27" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J28" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -15735,98 +16205,101 @@
       <c r="C29" t="s">
         <v>504</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J29" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="D35" t="s">
+        <v>505</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -15836,70 +16309,70 @@
       <c r="C36" t="s">
         <v>504</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="J36" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="J37" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="J39" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -15909,112 +16382,115 @@
       <c r="C41" t="s">
         <v>504</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="J45" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="D48" t="s">
+        <v>505</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -16024,42 +16500,42 @@
       <c r="C49" t="s">
         <v>504</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="J51" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -16069,112 +16545,112 @@
       <c r="C52" t="s">
         <v>504</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="J53" s="4">
+      <c r="K53" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="J54" s="4">
+      <c r="K54" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="J55" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="J56" s="4">
+      <c r="K56" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="J57" s="4">
+      <c r="K57" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="J58" s="4">
+      <c r="K58" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="J59" s="4">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -16182,7 +16658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -16190,7 +16666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -16198,7 +16674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -16206,7 +16682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -16214,7 +16690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -16222,7 +16698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -16230,7 +16706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -16238,7 +16714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -16246,7 +16722,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -16254,7 +16730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -16262,7 +16738,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -16270,7 +16746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -16278,7 +16754,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -16286,7 +16762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -16294,7 +16770,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -16305,15 +16781,18 @@
         <v>504</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -16324,7 +16803,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -16332,7 +16811,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -16340,7 +16819,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -16348,7 +16827,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -16359,7 +16838,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -16367,7 +16846,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -16375,7 +16854,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -16383,7 +16862,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -16391,15 +16870,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -16410,7 +16892,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -16418,7 +16900,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -16426,7 +16908,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -16434,7 +16916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -16442,7 +16924,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -16450,7 +16932,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -16458,7 +16940,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -16466,7 +16948,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -16474,7 +16956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -17140,7 +17622,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -17148,7 +17630,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -17156,7 +17638,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -17164,7 +17646,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -17172,7 +17654,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>188</v>
       </c>
@@ -17180,7 +17662,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -17188,7 +17670,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -17196,7 +17678,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -17204,7 +17686,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -17212,7 +17694,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -17223,7 +17705,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -17231,15 +17713,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>195</v>
       </c>
       <c r="B188" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -17250,7 +17735,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -17261,7 +17746,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -17272,7 +17757,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -17283,7 +17768,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -17294,7 +17779,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -17302,7 +17787,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -17313,7 +17798,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -17324,7 +17809,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -17332,7 +17817,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -17343,7 +17828,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>195</v>
       </c>
@@ -17351,7 +17836,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>195</v>
       </c>
@@ -17359,7 +17844,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>195</v>
       </c>
@@ -17370,7 +17855,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>195</v>
       </c>
@@ -17378,7 +17863,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -17386,7 +17871,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -17394,7 +17879,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -17402,7 +17887,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -17413,15 +17898,18 @@
         <v>504</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -17825,7 +18313,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>269</v>
       </c>
@@ -17833,7 +18321,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>269</v>
       </c>
@@ -17841,7 +18329,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>269</v>
       </c>
@@ -17849,7 +18337,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>269</v>
       </c>
@@ -17857,7 +18345,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>274</v>
       </c>
@@ -17865,7 +18353,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>274</v>
       </c>
@@ -17873,7 +18361,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>274</v>
       </c>
@@ -17881,7 +18369,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>274</v>
       </c>
@@ -17892,7 +18380,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>274</v>
       </c>
@@ -17900,7 +18388,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>274</v>
       </c>
@@ -17908,7 +18396,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>274</v>
       </c>
@@ -17916,7 +18404,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -17924,7 +18412,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -17935,7 +18423,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>274</v>
       </c>
@@ -17943,7 +18431,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>274</v>
       </c>
@@ -17954,12 +18442,15 @@
         <v>504</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
         <v>284</v>
+      </c>
+      <c r="D272" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -18346,7 +18837,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>333</v>
       </c>
@@ -18354,7 +18845,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>333</v>
       </c>
@@ -18362,7 +18853,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>333</v>
       </c>
@@ -18370,7 +18861,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>333</v>
       </c>
@@ -18378,7 +18869,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>333</v>
       </c>
@@ -18386,7 +18877,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>333</v>
       </c>
@@ -18394,7 +18885,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -18402,7 +18893,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>333</v>
       </c>
@@ -18410,7 +18901,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>333</v>
       </c>
@@ -18418,7 +18909,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>333</v>
       </c>
@@ -18426,7 +18917,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -18434,7 +18925,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -18442,7 +18933,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -18450,7 +18941,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -18461,15 +18952,18 @@
         <v>504</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>333</v>
       </c>
@@ -18733,7 +19227,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>362</v>
       </c>
@@ -18741,7 +19235,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -18749,7 +19243,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>373</v>
       </c>
@@ -18757,7 +19251,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -18765,7 +19259,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -18773,7 +19267,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -18781,7 +19275,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -18789,7 +19283,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>373</v>
       </c>
@@ -18797,15 +19291,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>373</v>
       </c>
       <c r="B377" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>373</v>
       </c>
@@ -18816,7 +19313,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>373</v>
       </c>
@@ -18824,7 +19321,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>373</v>
       </c>
@@ -18835,7 +19332,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>373</v>
       </c>
@@ -18843,7 +19340,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>373</v>
       </c>
@@ -18851,7 +19348,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>373</v>
       </c>
@@ -18859,7 +19356,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>373</v>
       </c>
@@ -19123,7 +19620,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>419</v>
       </c>
@@ -19131,7 +19628,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>419</v>
       </c>
@@ -19139,7 +19636,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>419</v>
       </c>
@@ -19150,15 +19647,18 @@
         <v>504</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
       <c r="B420" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -19166,7 +19666,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>419</v>
       </c>
@@ -19177,7 +19677,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>419</v>
       </c>
@@ -19185,7 +19685,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>419</v>
       </c>
@@ -19193,7 +19693,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>419</v>
       </c>
@@ -19201,7 +19701,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>432</v>
       </c>
@@ -19209,7 +19709,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>432</v>
       </c>
@@ -19217,7 +19717,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>432</v>
       </c>
@@ -19225,7 +19725,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>432</v>
       </c>
@@ -19233,7 +19733,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>432</v>
       </c>
@@ -19241,7 +19741,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>432</v>
       </c>
@@ -19249,7 +19749,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>438</v>
       </c>
@@ -19362,7 +19862,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B445">
+  <sortState ref="A2:D445">
     <sortCondition ref="A2:A445"/>
     <sortCondition ref="B2:B445"/>
   </sortState>
@@ -19372,6 +19872,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
